--- a/PSM_Baseline_2009/balance_check_results.xlsx
+++ b/PSM_Baseline_2009/balance_check_results.xlsx
@@ -467,17 +467,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.7341126481341</v>
+        <v>6.438261300782886</v>
       </c>
       <c r="C2" t="n">
-        <v>6.881414641238369</v>
+        <v>6.501110433718534</v>
       </c>
       <c r="D2" t="n">
-        <v>16.74571909376607</v>
+        <v>8.145282382069622</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.902226740283599</v>
+        <v>5.722068186375838</v>
       </c>
       <c r="C3" t="n">
-        <v>5.942152692583337</v>
+        <v>5.768180621157776</v>
       </c>
       <c r="D3" t="n">
-        <v>4.767610181879959</v>
+        <v>5.370774989784516</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7596661244752002</v>
+        <v>0.6021899870632997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7149104020614996</v>
+        <v>0.5812001176826126</v>
       </c>
       <c r="D4" t="n">
-        <v>9.823355709457154</v>
+        <v>6.398799704345692</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -530,17 +530,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4913768879553982</v>
+        <v>0.497744963449168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5034319341516941</v>
+        <v>0.4903009433128748</v>
       </c>
       <c r="D5" t="n">
-        <v>12.98125558292268</v>
+        <v>7.43668508647872</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
